--- a/public/assets/file/format_kelompok_last.xlsx
+++ b/public/assets/file/format_kelompok_last.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>nama rombel</t>
   </si>
@@ -188,6 +188,9 @@
     <t>R. 48</t>
   </si>
   <si>
+    <t>R.COBA</t>
+  </si>
+  <si>
     <t>X AKL 1</t>
   </si>
   <si>
@@ -330,6 +333,9 @@
   </si>
   <si>
     <t>XI MPL 3</t>
+  </si>
+  <si>
+    <t>coba</t>
   </si>
 </sst>
 </file>
@@ -755,7 +761,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="F13" sqref="F13"/>
@@ -817,7 +823,7 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -831,7 +837,7 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -845,7 +851,7 @@
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -853,7 +859,7 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -861,7 +867,7 @@
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -869,7 +875,7 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -877,7 +883,7 @@
         <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -885,7 +891,7 @@
         <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -893,7 +899,7 @@
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -901,7 +907,7 @@
         <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -909,7 +915,7 @@
         <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -917,7 +923,7 @@
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -925,7 +931,7 @@
         <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -933,7 +939,7 @@
         <v>22</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -941,7 +947,7 @@
         <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -949,7 +955,7 @@
         <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -957,7 +963,7 @@
         <v>25</v>
       </c>
       <c r="I19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -965,7 +971,7 @@
         <v>26</v>
       </c>
       <c r="I20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -973,7 +979,7 @@
         <v>27</v>
       </c>
       <c r="I21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -981,7 +987,7 @@
         <v>28</v>
       </c>
       <c r="I22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -989,7 +995,7 @@
         <v>29</v>
       </c>
       <c r="I23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -997,7 +1003,7 @@
         <v>30</v>
       </c>
       <c r="I24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1005,7 +1011,7 @@
         <v>31</v>
       </c>
       <c r="I25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1013,7 +1019,7 @@
         <v>32</v>
       </c>
       <c r="I26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1021,7 +1027,7 @@
         <v>33</v>
       </c>
       <c r="I27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1029,7 +1035,7 @@
         <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1037,7 +1043,7 @@
         <v>35</v>
       </c>
       <c r="I29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1045,7 +1051,7 @@
         <v>36</v>
       </c>
       <c r="I30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1053,7 +1059,7 @@
         <v>37</v>
       </c>
       <c r="I31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1061,7 +1067,7 @@
         <v>38</v>
       </c>
       <c r="I32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1069,7 +1075,7 @@
         <v>39</v>
       </c>
       <c r="I33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1077,7 +1083,7 @@
         <v>40</v>
       </c>
       <c r="I34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1085,7 +1091,7 @@
         <v>41</v>
       </c>
       <c r="I35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1093,7 +1099,7 @@
         <v>42</v>
       </c>
       <c r="I36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1101,7 +1107,7 @@
         <v>43</v>
       </c>
       <c r="I37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1109,7 +1115,7 @@
         <v>44</v>
       </c>
       <c r="I38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1117,7 +1123,7 @@
         <v>45</v>
       </c>
       <c r="I39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1125,7 +1131,7 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1133,7 +1139,7 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1141,7 +1147,7 @@
         <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1149,7 +1155,7 @@
         <v>49</v>
       </c>
       <c r="I43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1157,7 +1163,7 @@
         <v>50</v>
       </c>
       <c r="I44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1165,7 +1171,7 @@
         <v>51</v>
       </c>
       <c r="I45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1173,7 +1179,7 @@
         <v>52</v>
       </c>
       <c r="I46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1181,7 +1187,7 @@
         <v>53</v>
       </c>
       <c r="I47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1189,7 +1195,7 @@
         <v>54</v>
       </c>
       <c r="I48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1197,7 +1203,7 @@
         <v>55</v>
       </c>
       <c r="I49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1205,7 +1211,15 @@
         <v>56</v>
       </c>
       <c r="I50" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="H51" t="s">
+        <v>57</v>
+      </c>
+      <c r="I51" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
